--- a/data/long_razon/P23_3-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_3-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 132,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 40,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 89,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 71,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 78,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 40,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-23,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,17; -1,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 48,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 23,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 9,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,16; 1,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 20,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-30,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-48,55; -9,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 12,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,91; 14,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 9,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,54; -4,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 7,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,175 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,84; -2,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 20,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 19,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 9,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 9,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_3-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_3-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.4611675379931223</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.00619195997875987</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6750266350031786</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1947385730787617</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.04957070680021936</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.3879610365424479</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2997175710907869</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.02833428087510492</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.489305547024149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.1456674182196726</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4152946633673625</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1650696335138737</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.2029557034228882</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.320604547490404</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1286118634130772</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.06734685220001622</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2905697843515944</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.02956083980270856</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.676144432075148</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4421462223616583</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.265885248164161</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.7215540844215447</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.3062665086722088</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.192022266676697</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.8421743289217972</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.237805848405814</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.165471147457675</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2228393205035464</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1564878317857459</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.02607456105716668</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.03863634691073629</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1090595331358792</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1056242423700147</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1000184688698926</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.01110911414928247</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.0627546016463226</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4245313501649961</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1279658183968964</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2333693108720493</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1782266919506572</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2893141715279724</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1252785844070255</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2492413852324661</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1553713991943338</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.1126877380486329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.06265986165113892</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4920615071352734</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3885817633098549</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3387769458886095</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.08187306011893809</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3840409866110058</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.08808875530270849</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.194810993657042</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.2949783199236732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,233 +853,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.2851230432196291</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.104826303487861</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.04809747792194987</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1022523211386892</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1022531646207277</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.2309962082580425</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.1886579440715574</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1035212855570336</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.1394164287921724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.4819272137501687</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3108270534188958</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2284247225746756</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3008268891469827</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2814150574368933</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.03564365279905621</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3303712661342474</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2549061958626675</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.06074807988899621</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.02091205996578176</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.1478566653073714</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4147762454004758</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.1558801593680451</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.1144341586601611</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.5628812621105996</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.00744102038847706</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.04971932241622802</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3756493130919124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.1676726705724292</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.027064691321657</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1015489822094158</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.01066824547671057</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.09499522864174</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2039776715312977</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.07665619020373275</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.03711417463342341</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.1529825910722737</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3256636594073958</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1319265951498176</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1082046417433061</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1531261249866085</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2142366496796005</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.0120277921185275</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1824119069944581</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1376978588501887</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.01048490557215311</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.0308622140142697</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2007707176750675</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3679612429737437</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1698521271166426</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.04265496459141777</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.417765336049248</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.05213278654395609</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.07522658396097216</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.3240028248071601</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
